--- a/DATASHEET.xlsx
+++ b/DATASHEET.xlsx
@@ -11129,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D335" t="n">
         <v>534</v>
@@ -12249,7 +12249,7 @@
         <v>7</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D370" t="n">
         <v>534</v>
